--- a/medicine/Mort/Décès_en_2019/Décès_en_2019.xlsx
+++ b/medicine/Mort/Décès_en_2019/Décès_en_2019.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2019</t>
+          <t>Décès_en_2019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2019</t>
+          <t>Décès_en_2019</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-1er janvier :
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier :
 Raymond Ramazani Baya, homme politique congolais.
 Dagfinn Bakke, artiste peintre et illustrateur et dessinateur de presse norvégien.
 Joan Guinjoan, compositeur espagnol.
@@ -581,9 +598,43 @@
 Michel Legrand, compositeur et musicien français.
 Patrick Bricard, acteur et metteur en scène français.
 27 janvier : Henry Chapier, journaliste et animateur de télévision français.
-30 janvier : Dick Miller, acteur américain.
-Février
-1er février : Ayub Ogada, chanteur kényan.
+30 janvier : Dick Miller, acteur américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_2019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2019</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er février : Ayub Ogada, chanteur kényan.
 3 février :
 Julie Adams, actrice américaine.
 Kristoff St. John, acteur américain.
@@ -620,9 +671,43 @@
 28 février :
 André Previn, pianiste, chef d'orchestre et compositeur américain.
 Ed Bickert, musicien canadien.
-Zdzisław Antczak, handballeur polonais
-Mars
-1er mars : Kevin Roche, architecte irlando-américain.
+Zdzisław Antczak, handballeur polonais</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_2019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2019</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er mars : Kevin Roche, architecte irlando-américain.
 2 mars : Med Hondo, comédien et réalisateur franco-mauritanien.
 4 mars :
 Keith Flint, danseur et chanteur britannique.
@@ -641,9 +726,43 @@
 Barbara Hammer, réalisatrice américaine.
 22 mars : Scott Walker, auteur-compositeur-interprète américain.
 29 mars : Agnès Varda, réalisatrice, plasticienne et photographe française.
-31 mars : Nipsey Hussle, rappeur, entrepreneur et acteur américain.
-Avril
-3 avril : Mabô Kouyaté, acteur helvético-burkinabé-malien naturalisé français.
+31 mars : Nipsey Hussle, rappeur, entrepreneur et acteur américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_2019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2019</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 avril : Mabô Kouyaté, acteur helvético-burkinabé-malien naturalisé français.
 4 avril : Gueorgui Danielia, réalisateur et scénariste.
 5 avril : Sydney Brenner, biologiste sud-africain.
 6 avril : David J. Thouless, physicien britannique.
@@ -665,9 +784,43 @@
 29 avril : Ellen Tauscher, femme politique américaine, sous-secrétaire d'État.
 30 avril :
 Anémone, actrice et scénariste française.
-Peter Mayhew, acteur britanno-américain.
-Mai
-7 mai : Jean Vanier, philanthrope, philosophe et théologien canadien.
+Peter Mayhew, acteur britanno-américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_2019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2019</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>7 mai : Jean Vanier, philanthrope, philosophe et théologien canadien.
 11 mai :
 Jean-Claude Brisseau, réalisateur français.
 Mina Mangal, journaliste, militante pour les droits des femmes afghane.
@@ -686,9 +839,43 @@
 27 mai :
 Bill Buckner, joueur de baseball américain.
 François Weyergans, écrivain franco-belge.
-29 mai : Michel Gaudry, contrebassiste français de jazz.
-Juin
-1er juin :
+29 mai : Michel Gaudry, contrebassiste français de jazz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_2019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2019</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er juin :
 José Antonio Reyes, footballeur espagnol.
 Michel Serres, philosophe français.
 6 juin : Dr. John, pianiste, guitariste et chanteur américain.
@@ -706,9 +893,43 @@
 24 juin : Billy Drago, acteur et producteur américain.
 26 juin : Max Wright, acteur américain.
 27 juin : Rodolfo Opazo, artiste chilien.
-30 juin : Momir Bulatović, homme d'État monténégrin, président du Monténégro (1990-1998).
-Juillet
-1er juillet :
+30 juin : Momir Bulatović, homme d'État monténégrin, président du Monténégro (1990-1998).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_2019</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2019</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juillet :
 António Manuel Botelho Hespanha, historien et juriste portugais.
 Arte Johnson, acteur et scénariste américain.
 2 juillet : Lee Iacocca, homme d'affaires américain.
@@ -740,9 +961,43 @@
 Li Peng, homme politique chinois.
 25 juillet : Béji Caïd Essebsi, homme d'État tunisien, président de la République.
 26 juillet : Russi Taylor, actrice américaine.
-31 juillet : Jean-Luc Thérier, pilote de rallye français.
-Août
-1er août : Harley Race, catcheur (professionnel), manager, promoteur et entraîneur américain de catch.
+31 juillet : Jean-Luc Thérier, pilote de rallye français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_2019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2019</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er août : Harley Race, catcheur (professionnel), manager, promoteur et entraîneur américain de catch.
 4 août : Nuon Chea, homme politique cambodgien.
 5 août : Toni Morrison, écrivaine américaine, prix Nobel de littérature en 1993.
 8 août : Jean-Pierre Mocky, cinéaste français.
@@ -758,9 +1013,43 @@
 30 août :
 Valerie Harper, actrice américaine.
 Bernard Golay, journaliste et présentateur français.
-31 août : Anthoine Hubert, pilote de Formule 2 français.
-Septembre
-2 septembre : Gyoji Matsumoto, footballeur japonais.
+31 août : Anthoine Hubert, pilote de Formule 2 français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_2019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2019</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 septembre : Gyoji Matsumoto, footballeur japonais.
 3 septembre :
 Peter Lindbergh, photographe de mode, portraitiste et réalisateur allemand.
 Carol Lynley, actrice américaine.
@@ -785,9 +1074,43 @@
 25 septembre : Donald Nicholls, pair et avocat britannique.
 26 septembre : Jacques Chirac, président de la République française de 1995 à 2007.
 28 septembre : José José, chanteur mexicain.
-30 septembre : Jessye Norman, cantatrice américaine.
-Octobre
-1er octobre :
+30 septembre : Jessye Norman, cantatrice américaine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_2019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2019</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er octobre :
 Roger Bismuth, homme politique tunisien.
 Karel Gott, chanteur tchèque.
 3 octobre :
@@ -820,9 +1143,43 @@
 29 octobre :
 Gerald L. Baliles, homme politique américain.
 John Witherspoon, acteur américain.
-Mihai Constantinescu, chanteur roumain de musique pop.
-Novembre
-2 novembre :
+Mihai Constantinescu, chanteur roumain de musique pop.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_2019</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2019</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 novembre :
 Yvette Lundy, résistante française.
 Marie Laforêt, chanteuse et actrice française.
 Louis Lareng, anesthésiste, urgentiste et homme politique français, fondateur du SAMU.
@@ -856,9 +1213,43 @@
 Yeshi Donden, médecin tibétain.
 Köbi Kuhn, joueur et entraîneur suisse de football.
 27 novembre : Godfrey Gao, mannequin et acteur canadien et taïwanais,
-29 novembre : Yasuhiro Nakasone, homme d'État japonais, 45e Premier ministre du pays.
-Décembre
-1er décembre :
+29 novembre : Yasuhiro Nakasone, homme d'État japonais, 45e Premier ministre du pays.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_2019</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2019</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er décembre :
 Mariss Jansons, chef d'orchestre letton.
 Shelley Morrison, actrice américaine.
 2 décembre :
@@ -899,7 +1290,7 @@
 Ibrahim Diarra, joueur français de rugby à XV.
 Alain Barrière, chanteur français de variétés.
 Claudine Auger, actrice française.
-Leandro Despouy, avocat des droits de l'homme argentin[1].
+Leandro Despouy, avocat des droits de l'homme argentin.
 19 décembre : Jules Deelder, écrivain et poète néerlandais.
 20 décembre : Fazle Hasan Abed, travailleur social et expert-comptable indien, pakistanais, bangladais puis britannique.
 21 décembre :
